--- a/Documentation/Scrumboard2.xlsx
+++ b/Documentation/Scrumboard2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hobincar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/tomcat/webapps/ROOT/CMPS115TeamProject/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>User Story</t>
   </si>
@@ -44,21 +44,64 @@
     <t>As an event planner, I want to add or delete my events, so that other members of UCSC can see if my event is available.</t>
   </si>
   <si>
-    <t>Task 1. Implement Layout. (2 hour)
-Task 2. Send input as json data file. (2 hour)
+    <t>As an event-goer, I want to be able to see details of an event, so that I can decide whether or not to go.</t>
+  </si>
+  <si>
+    <t>As an event-goer, I want to be able to search for specific events, so that I may find the event that I need.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>As an event-goer, I want to be able to see a marker on the map, so that I can see where it is.</t>
+  </si>
+  <si>
+    <t>As an event-goer, I want to be able to send or rescind an application to a specific event, so that the event planner knows whether I will attend or not.</t>
+  </si>
+  <si>
+    <t>Task 1. Recieve the list of users who applied to the event from the server. (1 hour)
+Task 2. Display the list on the event details page with accept and reject options. (2 hour)
+Task 3. Send acceptance status to the server. (1 hour)
+Task 4. Notify applicant of their status. (1 hour)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>As an event planner, I want to be able to manage my event, so that I can apply certain constraints to the event.</t>
+  </si>
+  <si>
+    <t>Task 1. Pull location details from the database, and mark it on the map. (2 hour)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 1. Implement layout. (2 hour)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 2. Be able to pull details from the database.</t>
+  </si>
+  <si>
+    <t>Task 1. Implement Layout. (2 hour)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 2. Send input as json data file. (2 hour)
 Task 3. Insert Event and its details into the database. (2 hour)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>As an event-goer, I want to be able to see details of an event, so that I can decide whether or not to go.</t>
-  </si>
-  <si>
-    <t>Task 1. Implement layout. (2 hour)
-Task 2. Be able to pull details from the database.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>As an event-goer, I want to be able to search for specific events, so that I may find the event that I need.</t>
+    <t>Task 1. Design layout for the management page. (3 hour)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -68,10 +111,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>As an event-goer, I want to be able to see a marker on the map, so that I can see where it is.</t>
-  </si>
-  <si>
-    <t>As an event-goer, I want to be able to send or rescind an application to a specific event, so that the event planner knows whether I will attend or not.</t>
+    <t>As an event planner, I want to be able to see who applied to my event and be able to accept or decline their application, so that event-goers know if they are allowed to participate or not.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Task 1. Make the submit button funcitonal. (1 hour)
@@ -79,30 +120,6 @@
 Task 3. Send confirmation to the user, and show them their current status on the event details page. (2 hour)
 Task 4. Be able to cancel status. (1 hour)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>As an event planner, I want to be able to see who applied to my event and be able to accept or decline their application, so that event-goers know if they are allowed to participate or not.</t>
-  </si>
-  <si>
-    <t>Task 1. Recieve the list of users who applied to the event from the server. (1 hour)
-Task 2. Display the list on the event details page with accept and reject options. (2 hour)
-Task 3. Send acceptance status to the server. (1 hour)
-Task 4. Notify applicant of their status. (1 hour)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>As an event planner, I want to be able to manage my event, so that I can apply certain constraints to the event.</t>
-  </si>
-  <si>
-    <t>Task 1. Design layout for the management page. (3 hour)</t>
-  </si>
-  <si>
-    <t>Task 1. Pull location details from the database, and mark it on the map. (2 hour)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -116,6 +133,7 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,7 +480,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -481,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
@@ -489,68 +507,75 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
